--- a/Documents/Tableau_fonctionnalites.xlsx
+++ b/Documents/Tableau_fonctionnalites.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Cours\DUT\2A\S3\PHP\Projet\mywishlist_BAKRIM_MICHELET_GREGOIRE_BRASLEY_S3A\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7948B3-6908-420C-AD02-37D269E61F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>Fonctionnalité réalisée :</t>
   </si>
@@ -121,14 +127,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,346 +136,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -485,264 +155,22 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,65 +178,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -932,7 +316,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -956,9 +340,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -982,7 +366,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1035,7 +419,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1060,29 +444,29 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.2" customWidth="true"/>
-    <col min="2" max="2" width="46.3" customWidth="true"/>
-    <col min="3" max="3" width="22.6" customWidth="true"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1169,7 +553,9 @@
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
@@ -1382,6 +768,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Documents/Tableau_fonctionnalites.xlsx
+++ b/Documents/Tableau_fonctionnalites.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Desktop\IUT Charlemagne\2A\php\ProjetPhp\mywishlist_BAKRIM_MICHELET_GREGOIRE_BRASLEY_S3A\Documents\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F2C02B-CBAB-414F-99C2-ADC29697A27B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Fonctionnalité réalisée :</t>
   </si>
@@ -116,19 +122,16 @@
   </si>
   <si>
     <t>Joindre des listes à son compte</t>
+  </si>
+  <si>
+    <t>BAKRIM Yassine</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,346 +139,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -485,264 +158,22 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="true"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color auto="true"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -750,65 +181,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -932,7 +319,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -956,9 +343,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -982,7 +369,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1035,7 +422,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1060,29 +447,29 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="false"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.2" customWidth="true"/>
-    <col min="2" max="2" width="46.3" customWidth="true"/>
-    <col min="3" max="3" width="22.6" customWidth="true"/>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="46.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1275,7 +662,9 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
@@ -1284,7 +673,9 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
@@ -1293,7 +684,9 @@
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
@@ -1382,6 +775,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Documents/Tableau_fonctionnalites.xlsx
+++ b/Documents/Tableau_fonctionnalites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Cours\DUT\2A\S3\PHP\Projet\mywishlist_BAKRIM_MICHELET_GREGOIRE_BRASLEY_S3A\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7948B3-6908-420C-AD02-37D269E61F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A1F77-F73F-446B-90E9-978E4C544DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Fonctionnalité réalisée :</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>Joindre des listes à son compte</t>
+  </si>
+  <si>
+    <t>BAKRIM Yassine</t>
   </si>
 </sst>
 </file>
@@ -459,7 +462,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -661,7 +664,9 @@
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
@@ -670,7 +675,9 @@
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
@@ -679,7 +686,9 @@
       <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
@@ -764,7 +773,9 @@
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Documents/Tableau_fonctionnalites.xlsx
+++ b/Documents/Tableau_fonctionnalites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Cours\DUT\2A\S3\PHP\Projet\mywishlist_BAKRIM_MICHELET_GREGOIRE_BRASLEY_S3A\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{673A1F77-F73F-446B-90E9-978E4C544DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70C2567-CC36-49A0-A7B5-A2151EF176BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>Fonctionnalité réalisée :</t>
   </si>
@@ -100,9 +100,6 @@
     <t xml:space="preserve">Afficher les listes de souhaits publiques </t>
   </si>
   <si>
-    <t>Créer un cagnotte sur un item</t>
-  </si>
-  <si>
     <t>GRÉGOIRE Alexis</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>BAKRIM Yassine</t>
+  </si>
+  <si>
+    <t>Créer une cagnotte sur un item</t>
   </si>
 </sst>
 </file>
@@ -462,12 +462,12 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" customWidth="1"/>
     <col min="2" max="2" width="46.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
   </cols>
@@ -665,7 +665,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -676,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -687,7 +687,7 @@
         <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -713,10 +713,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -724,7 +724,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1"/>
     </row>
@@ -733,7 +733,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>4</v>
@@ -744,7 +744,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -753,16 +753,18 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1"/>
     </row>
@@ -771,10 +773,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Tableau_fonctionnalites.xlsx
+++ b/Documents/Tableau_fonctionnalites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Cours\DUT\2A\S3\PHP\Projet\mywishlist_BAKRIM_MICHELET_GREGOIRE_BRASLEY_S3A\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70C2567-CC36-49A0-A7B5-A2151EF176BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991E51EE-CAD1-44D0-B21E-F5B047C96956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Fonctionnalité réalisée :</t>
   </si>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -766,7 +766,9 @@
       <c r="B28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">

--- a/Documents/Tableau_fonctionnalites.xlsx
+++ b/Documents/Tableau_fonctionnalites.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Cours\DUT\2A\S3\PHP\Projet\mywishlist_BAKRIM_MICHELET_GREGOIRE_BRASLEY_S3A\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991E51EE-CAD1-44D0-B21E-F5B047C96956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44022343-F8B0-48CE-8714-EE56AAD4E322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Fonctionnalité réalisée :</t>
   </si>
@@ -462,7 +462,7 @@
   <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -633,7 +633,9 @@
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
